--- a/07_Flow_Data_Collection_Tables.xlsx
+++ b/07_Flow_Data_Collection_Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\School\Year 3\MEC-E-301\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\LaTeX\MEC-E-301\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40948574-5A42-4163-9551-E5B829FE3E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EE22F1-99EB-4A11-AC6C-F0673C36B6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student Info and Rubric" sheetId="4" r:id="rId1"/>
@@ -36,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="95">
   <si>
     <t xml:space="preserve">Student Surname: </t>
   </si>
@@ -430,12 +452,87 @@
   <si>
     <t>x1</t>
   </si>
+  <si>
+    <t>Question 1</t>
+  </si>
+  <si>
+    <t>PV = mRT</t>
+  </si>
+  <si>
+    <t>m/V = P/RT</t>
+  </si>
+  <si>
+    <t>Question 2</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>mmH2O -&gt;Pa</t>
+  </si>
+  <si>
+    <t>m/V</t>
+  </si>
+  <si>
+    <t>homework and exercises - How is formula for converting pressure from mmHg to Pa derived? - Physics Stack Exchange</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>Question 3</t>
+  </si>
+  <si>
+    <t>v_{-45}</t>
+  </si>
+  <si>
+    <t>err</t>
+  </si>
+  <si>
+    <t>Question 4</t>
+  </si>
+  <si>
+    <t>plot to be remade in matplotlib</t>
+  </si>
+  <si>
+    <t>sens-&gt;</t>
+  </si>
+  <si>
+    <t>intercept</t>
+  </si>
+  <si>
+    <t>s_a</t>
+  </si>
+  <si>
+    <t>s_b</t>
+  </si>
+  <si>
+    <t>R^2</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Orfice Diameter</t>
+  </si>
+  <si>
+    <t>Delta P (Pa)</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Question 5 is in table</t>
+  </si>
+  <si>
+    <t>Question6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -503,6 +600,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -556,11 +660,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -654,8 +759,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -876,64 +986,64 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.81640625" style="2"/>
+    <col min="2" max="2" width="18.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -944,7 +1054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
@@ -953,7 +1063,7 @@
       </c>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>54</v>
       </c>
@@ -962,7 +1072,7 @@
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>55</v>
       </c>
@@ -971,7 +1081,7 @@
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>56</v>
       </c>
@@ -980,7 +1090,7 @@
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
@@ -989,7 +1099,7 @@
       </c>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>58</v>
       </c>
@@ -998,7 +1108,7 @@
       </c>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>59</v>
       </c>
@@ -1007,7 +1117,7 @@
       </c>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>60</v>
       </c>
@@ -1016,7 +1126,7 @@
       </c>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>61</v>
       </c>
@@ -1025,7 +1135,7 @@
       </c>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
@@ -1034,7 +1144,7 @@
       </c>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>12</v>
       </c>
@@ -1043,7 +1153,7 @@
       </c>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
         <v>13</v>
@@ -1053,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
         <v>15</v>
@@ -1063,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
         <v>62</v>
@@ -1072,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
         <v>63</v>
@@ -1091,50 +1201,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5A20CD-CFFA-604A-B1A6-58C924DA13F1}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="26.5" x14ac:dyDescent="0.25">
+      <c r="J2" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="J3" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9">
         <v>0.60950000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="J4" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="9">
         <v>0.60660000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="J5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5">
+        <f>E70/7.501/0.287/(B70+273.15)</f>
+        <v>1.1157318004366954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -1142,31 +1268,54 @@
         <v>0.60529999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>4</v>
       </c>
       <c r="B7" s="9">
         <v>0.60450000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="J7" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>5</v>
       </c>
       <c r="B8" s="9">
         <v>0.60399999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="J8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8">
+        <f>0.001*997*9.81</f>
+        <v>9.7805700000000009</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>6</v>
       </c>
       <c r="B9" s="9">
         <v>0.60360000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="J9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9">
+        <f>SQRT(2*C32*K8/K5)</f>
+        <v>18.958069256656128</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -1174,31 +1323,48 @@
         <v>0.60329999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>8</v>
       </c>
       <c r="B11" s="9">
         <v>0.60309999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="J11" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>9</v>
       </c>
       <c r="B12" s="9">
         <v>0.60289999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="J12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12">
+        <f>SQRT(2*C26*K8/K5)</f>
+        <v>13.567874708873788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>10</v>
       </c>
       <c r="B13" s="9">
         <v>0.6028</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="J13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13">
+        <f>ABS(K12-K9)</f>
+        <v>5.3901945477823396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>15</v>
       </c>
@@ -1206,71 +1372,131 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>20</v>
       </c>
       <c r="B15" s="9">
         <v>0.60170000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+      <c r="J15" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>25</v>
       </c>
       <c r="B16" s="9">
         <v>0.60150000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+      <c r="J16" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>30</v>
       </c>
       <c r="B17" s="9">
         <v>0.60129999999999995</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+      <c r="J17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" cm="1">
+        <f t="array" ref="K17:L21">LINEST(B56:B65,A56:A65, TRUE, TRUE)</f>
+        <v>0.26600136085280102</v>
+      </c>
+      <c r="L17">
+        <v>3.6604853708323879</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>35</v>
       </c>
       <c r="B18" s="9">
         <v>0.60109999999999997</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+      <c r="J18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18">
+        <v>1.4288925610284648E-2</v>
+      </c>
+      <c r="L18">
+        <v>0.18667429980597816</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>40</v>
       </c>
       <c r="B19" s="9">
         <v>0.60109999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+      <c r="J19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19">
+        <v>0.97743632196261887</v>
+      </c>
+      <c r="L19">
+        <v>0.33544755532336196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>45</v>
       </c>
       <c r="B20" s="9">
         <v>0.60099999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>346.55212517863521</v>
+      </c>
+      <c r="L20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>50</v>
       </c>
       <c r="B21" s="12">
         <v>0.60099999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>38.995799501020628</v>
+      </c>
+      <c r="L21">
+        <v>0.90020049897935994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J22" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
-    </row>
-    <row r="25" spans="1:4" ht="52" x14ac:dyDescent="0.25">
+      <c r="J24" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>20</v>
       </c>
@@ -1284,7 +1510,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="29" t="s">
         <v>22</v>
       </c>
@@ -1298,7 +1524,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="30"/>
       <c r="B27" s="13">
         <v>120</v>
@@ -1310,7 +1536,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="30"/>
       <c r="B28" s="13">
         <v>125</v>
@@ -1322,7 +1548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="30"/>
       <c r="B29" s="13">
         <v>135</v>
@@ -1334,7 +1560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="31"/>
       <c r="B30" s="14">
         <v>140</v>
@@ -1346,7 +1572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>23</v>
       </c>
@@ -1360,7 +1586,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="s">
         <v>24</v>
       </c>
@@ -1374,7 +1600,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="30"/>
       <c r="B33" s="13">
         <v>155</v>
@@ -1386,7 +1612,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="30"/>
       <c r="B34" s="13">
         <v>165</v>
@@ -1398,7 +1624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="30"/>
       <c r="B35" s="13">
         <v>170</v>
@@ -1410,7 +1636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="31"/>
       <c r="B36" s="13">
         <v>180</v>
@@ -1422,7 +1648,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="32" t="s">
         <v>49</v>
       </c>
@@ -1430,7 +1656,7 @@
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
     </row>
-    <row r="40" spans="1:4" ht="52" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>28</v>
       </c>
@@ -1444,7 +1670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A41" s="29" t="s">
         <v>22</v>
       </c>
@@ -1458,7 +1684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" s="30"/>
       <c r="B42" s="18">
         <v>-40</v>
@@ -1470,7 +1696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A43" s="30"/>
       <c r="B43" s="18">
         <v>-30</v>
@@ -1482,7 +1708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A44" s="30"/>
       <c r="B44" s="18">
         <v>-20</v>
@@ -1494,7 +1720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A45" s="31"/>
       <c r="B45" s="20">
         <v>-10</v>
@@ -1506,7 +1732,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
         <v>23</v>
       </c>
@@ -1520,7 +1746,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A47" s="29" t="s">
         <v>24</v>
       </c>
@@ -1534,7 +1760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A48" s="30"/>
       <c r="B48" s="18">
         <v>20</v>
@@ -1546,7 +1772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A49" s="30"/>
       <c r="B49" s="18">
         <v>30</v>
@@ -1558,7 +1784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A50" s="30"/>
       <c r="B50" s="18">
         <v>40</v>
@@ -1570,7 +1796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A51" s="31"/>
       <c r="B51" s="20">
         <v>45</v>
@@ -1582,13 +1808,13 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="32" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="32"/>
     </row>
-    <row r="55" spans="1:4" ht="41" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="39.75" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>25</v>
       </c>
@@ -1596,7 +1822,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A56" s="18">
         <v>24.5</v>
       </c>
@@ -1604,7 +1830,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>20</v>
       </c>
@@ -1612,7 +1838,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
         <v>17</v>
       </c>
@@ -1620,7 +1846,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A59" s="18">
         <v>13</v>
       </c>
@@ -1628,7 +1854,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A60" s="18">
         <v>10</v>
       </c>
@@ -1636,7 +1862,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A61" s="18">
         <v>9</v>
       </c>
@@ -1644,7 +1870,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A62" s="18">
         <v>6.5</v>
       </c>
@@ -1652,7 +1878,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A63" s="18">
         <v>4.5</v>
       </c>
@@ -1660,7 +1886,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A64" s="18">
         <v>2</v>
       </c>
@@ -1668,7 +1894,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A65" s="20">
         <v>1</v>
       </c>
@@ -1676,7 +1902,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="28" t="s">
         <v>51</v>
       </c>
@@ -1685,7 +1911,7 @@
       <c r="D68" s="28"/>
       <c r="E68" s="28"/>
     </row>
-    <row r="69" spans="1:17" ht="39" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
         <v>31</v>
       </c>
@@ -1708,7 +1934,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A70" s="15">
         <v>711</v>
       </c>
@@ -1750,7 +1976,7 @@
         <v>0.48049999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>36</v>
       </c>
@@ -1767,7 +1993,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I72" s="8" t="s">
         <v>68</v>
       </c>
@@ -1783,7 +2009,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I73" s="8" t="s">
         <v>69</v>
       </c>
@@ -1797,7 +2023,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="28" t="s">
         <v>52</v>
       </c>
@@ -1816,7 +2042,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
         <v>37</v>
       </c>
@@ -1827,7 +2053,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A76" s="15">
         <v>25.6</v>
       </c>
@@ -1852,7 +2078,7 @@
         <v>6.500000000000003E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="I77">
         <v>720</v>
       </c>
@@ -1868,7 +2094,7 @@
         <v>6.500000000000003E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
         <v>53</v>
       </c>
@@ -1880,7 +2106,7 @@
       <c r="G78" s="28"/>
       <c r="H78" s="28"/>
     </row>
-    <row r="79" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="26" t="s">
         <v>40</v>
       </c>
@@ -1896,7 +2122,7 @@
       <c r="G79" s="26"/>
       <c r="H79" s="23"/>
     </row>
-    <row r="80" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="26"/>
       <c r="B80" s="23"/>
       <c r="C80" s="23"/>
@@ -1906,7 +2132,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="23"/>
     </row>
-    <row r="81" spans="1:8" ht="40" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:12" ht="39" x14ac:dyDescent="0.25">
       <c r="A81" s="27"/>
       <c r="B81" s="25" t="s">
         <v>48</v>
@@ -1927,8 +2153,20 @@
       <c r="H81" s="24" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="I81" t="s">
+        <v>89</v>
+      </c>
+      <c r="J81" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="K81" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="L81" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A82" s="13">
         <v>94</v>
       </c>
@@ -1948,13 +2186,28 @@
         <v>170</v>
       </c>
       <c r="G82" s="13">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="H82" s="13">
         <v>22</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>0.60115999999999903</v>
+      </c>
+      <c r="J82">
+        <f>PI()/4*($A$76/1000)^2</f>
+        <v>5.147185403641517E-4</v>
+      </c>
+      <c r="K82">
+        <f>G82*$K$8</f>
+        <v>1662.6969000000001</v>
+      </c>
+      <c r="L82">
+        <f>I82*J82*SQRT(2*K82/$K$5)</f>
+        <v>1.6892795452369394E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A83" s="13">
         <v>85</v>
       </c>
@@ -1979,8 +2232,23 @@
       <c r="H83" s="13">
         <v>22</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>0.60143999999999997</v>
+      </c>
+      <c r="J83">
+        <f t="shared" ref="J83:J91" si="0">PI()/4*($A$76/1000)^2</f>
+        <v>5.147185403641517E-4</v>
+      </c>
+      <c r="K83">
+        <f t="shared" ref="K83:K91" si="1">G83*$K$8</f>
+        <v>1310.5963800000002</v>
+      </c>
+      <c r="L83">
+        <f t="shared" ref="L83:L91" si="2">I83*J83*SQRT(2*K83/$K$5)</f>
+        <v>1.5004851252418554E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A84" s="13">
         <v>77</v>
       </c>
@@ -2005,8 +2273,23 @@
       <c r="H84" s="13">
         <v>22</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>0.60161600000000004</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="0"/>
+        <v>5.147185403641517E-4</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="1"/>
+        <v>1075.8627000000001</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="2"/>
+        <v>1.35988664060776E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A85" s="13">
         <v>69</v>
       </c>
@@ -2031,8 +2314,23 @@
       <c r="H85" s="13">
         <v>22</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>0.60186200000000001</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="0"/>
+        <v>5.147185403641517E-4</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="1"/>
+        <v>821.56788000000006</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="2"/>
+        <v>1.1888403966416864E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A86" s="13">
         <v>60</v>
       </c>
@@ -2057,8 +2355,23 @@
       <c r="H86" s="13">
         <v>22</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>0.60233599999999998</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="0"/>
+        <v>5.147185403641517E-4</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="1"/>
+        <v>616.17591000000004</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="2"/>
+        <v>1.0303768253553129E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A87" s="13">
         <v>50</v>
       </c>
@@ -2083,8 +2396,23 @@
       <c r="H87" s="13">
         <v>22</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>0.60289999999999999</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="0"/>
+        <v>5.147185403641517E-4</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="1"/>
+        <v>420.56451000000004</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="2"/>
+        <v>8.5205278163054867E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A88" s="13">
         <v>42</v>
       </c>
@@ -2109,8 +2437,23 @@
       <c r="H88" s="13">
         <v>22</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>0.60348000000000002</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="0"/>
+        <v>5.147185403641517E-4</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="1"/>
+        <v>312.97824000000003</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="2"/>
+        <v>7.3574082974058102E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A89" s="13">
         <v>33</v>
       </c>
@@ -2135,8 +2478,23 @@
       <c r="H89" s="13">
         <v>22</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>0.60458000000000001</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="0"/>
+        <v>5.147185403641517E-4</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="1"/>
+        <v>200.50168500000001</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="2"/>
+        <v>5.8995338009355854E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A90" s="13">
         <v>24</v>
       </c>
@@ -2161,8 +2519,23 @@
       <c r="H90" s="13">
         <v>22</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>0.60646999999999995</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="0"/>
+        <v>5.147185403641517E-4</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="1"/>
+        <v>107.58627000000001</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="2"/>
+        <v>4.3350354389421128E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A91" s="14">
         <v>16</v>
       </c>
@@ -2187,8 +2560,23 @@
       <c r="H91" s="13">
         <v>22</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>0.60950000000000004</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="0"/>
+        <v>5.147185403641517E-4</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="1"/>
+        <v>48.902850000000001</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="2"/>
+        <v>2.9372823731488086E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
     </row>
   </sheetData>
@@ -2207,6 +2595,9 @@
     <mergeCell ref="A79:A81"/>
     <mergeCell ref="E79:E81"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="L8" r:id="rId1" display="https://physics.stackexchange.com/questions/8331/how-is-formula-for-converting-pressure-from-mmhg-to-pa-derived" xr:uid="{634224BC-C97E-41AA-AC8D-5A2B6300FB6F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>